--- a/Lahendused/Reklaam_regressioonianaluus.xlsx
+++ b/Lahendused/Reklaam_regressioonianaluus.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{5073DDA3-9A3D-44E6-A9ED-B6F351EC1468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CA4AFD-48C4-434E-A381-0407BB9A0E9B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A30ADEB3-073F-4D30-A5CE-2B85D2BA5119}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{A30ADEB3-073F-4D30-A5CE-2B85D2BA5119}"/>
   </bookViews>
   <sheets>
     <sheet name="Andmestik" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -326,11 +326,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4153,6 +4148,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4472,7 +4471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099E1D11-F65C-491D-B064-2C942F8B72F9}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5269,200 +5268,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3">
         <v>6865.4948529411768</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3">
         <v>62311.370294117645</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4">
         <v>110.20657972579856</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4">
         <v>548.4720036547161</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5">
         <v>6794.2800000000007</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5">
         <v>61814.554999999993</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="9" t="e">
+      <c r="B6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="9" t="e">
+      <c r="D6" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>908.78673769504258</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>4522.8160075250998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>825893.33461039816</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>20455864.637925286</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>-0.55219939569650034</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>-0.45844665894440295</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>2.8613318889023853E-2</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>8.2415010073823985E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>3811.9500000000007</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>19137.07</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>5040.33</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>53016.12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>8852.2800000000007</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>72153.19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>466853.65</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>4237173.18</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="1">
         <v>68</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="1">
         <v>68</v>
       </c>
     </row>
@@ -5476,7 +5469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA5A27B-74F7-4C27-A816-51FEECD98152}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
       <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
